--- a/分数预测.xlsx
+++ b/分数预测.xlsx
@@ -228,6 +228,15 @@
                 <c:pt idx="3">
                   <c:v>71</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -308,25 +317,25 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="4">
-                  <c:v>50.782051282051285</c:v>
+                  <c:v>66.423076923076934</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.346153846153847</c:v>
+                  <c:v>65.615384615384613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.935897435897438</c:v>
+                  <c:v>65.448717948717956</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1025641025641022</c:v>
+                  <c:v>47.987179487179489</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>31.61538461538462</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>18.871794871794872</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>8.2051282051282062</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -345,11 +354,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="218455424"/>
-        <c:axId val="218465408"/>
+        <c:axId val="204379648"/>
+        <c:axId val="204381184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218455424"/>
+        <c:axId val="204379648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -358,13 +367,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218465408"/>
+        <c:crossAx val="204381184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218465408"/>
+        <c:axId val="204381184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -374,7 +383,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218455424"/>
+        <c:crossAx val="204379648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -388,7 +397,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -743,7 +752,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -870,9 +879,12 @@
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>61</v>
+      </c>
       <c r="C7" s="1">
         <f>(B7*$F$6+B6*$F$5+B5*$F$4+B4*$F$3+B3*$F$2)/SUM($F$2:$F$6)</f>
-        <v>50.782051282051285</v>
+        <v>66.423076923076934</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -882,9 +894,12 @@
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
       <c r="C8" s="1">
         <f t="shared" ref="C8:C17" si="0">(B8*$F$6+B7*$F$5+B6*$F$4+B5*$F$3+B4*$F$2)/SUM($F$2:$F$6)</f>
-        <v>34.346153846153847</v>
+        <v>65.615384615384613</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -894,9 +909,12 @@
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>64</v>
+      </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>20.935897435897438</v>
+        <v>65.448717948717956</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -908,7 +926,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>9.1025641025641022</v>
+        <v>47.987179487179489</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -920,7 +938,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31.61538461538462</v>
       </c>
       <c r="H11">
         <v>9</v>
@@ -932,7 +950,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.871794871794872</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -944,7 +962,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.2051282051282062</v>
       </c>
       <c r="H13">
         <v>11</v>

--- a/分数预测.xlsx
+++ b/分数预测.xlsx
@@ -237,6 +237,12 @@
                 <c:pt idx="6">
                   <c:v>64</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -326,22 +332,22 @@
                   <c:v>65.448717948717956</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.987179487179489</c:v>
+                  <c:v>66.705128205128204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.61538461538462</c:v>
+                  <c:v>65.294871794871796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.871794871794872</c:v>
+                  <c:v>48.948717948717949</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2051282051282062</c:v>
+                  <c:v>33.089743589743591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>19.692307692307697</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>7.9487179487179489</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -354,11 +360,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="204379648"/>
-        <c:axId val="204381184"/>
+        <c:axId val="192910848"/>
+        <c:axId val="192912384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204379648"/>
+        <c:axId val="192910848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -367,13 +373,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204381184"/>
+        <c:crossAx val="192912384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204381184"/>
+        <c:axId val="192912384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -383,7 +389,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204379648"/>
+        <c:crossAx val="192910848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -397,7 +403,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -751,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -924,9 +930,12 @@
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>73</v>
+      </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>47.987179487179489</v>
+        <v>66.705128205128204</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -936,9 +945,12 @@
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>62</v>
+      </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>31.61538461538462</v>
+        <v>65.294871794871796</v>
       </c>
       <c r="H11">
         <v>9</v>
@@ -950,7 +962,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>18.871794871794872</v>
+        <v>48.948717948717949</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -962,7 +974,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>8.2051282051282062</v>
+        <v>33.089743589743591</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -974,7 +986,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19.692307692307697</v>
       </c>
       <c r="H14">
         <v>12</v>
@@ -986,7 +998,7 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.9487179487179489</v>
       </c>
       <c r="H15">
         <v>13</v>

--- a/分数预测.xlsx
+++ b/分数预测.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24F5388-420C-47F8-B6E9-88F2E4391226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -53,11 +62,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,12 +122,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -136,12 +163,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -247,6 +276,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD12-40FC-A46C-F7B7AC365C41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -359,7 +393,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD12-40FC-A46C-F7B7AC365C41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="192910848"/>
         <c:axId val="192912384"/>
       </c:scatterChart>
@@ -370,8 +417,11 @@
           <c:max val="15"/>
           <c:min val="1"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="192912384"/>
         <c:crosses val="autoZero"/>
@@ -385,9 +435,12 @@
           <c:max val="90"/>
           <c:min val="60"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="192910848"/>
         <c:crosses val="autoZero"/>
@@ -397,9 +450,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -413,20 +468,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -445,12 +506,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:C17" totalsRowShown="0">
-  <autoFilter ref="A2:C17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A2:C17" totalsRowShown="0">
+  <autoFilter ref="A2:C17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="次数"/>
-    <tableColumn id="2" name="得分"/>
-    <tableColumn id="3" name="下次预测得分" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="次数"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="得分"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="下次预测得分" dataDxfId="0">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -459,19 +520,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="H2:J17" totalsRowShown="0">
-  <autoFilter ref="H2:J17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="H2:J17" totalsRowShown="0">
+  <autoFilter ref="H2:J17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="次数"/>
-    <tableColumn id="2" name="得分"/>
-    <tableColumn id="3" name="下次预测得分"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="次数"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="得分"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="下次预测得分"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -513,7 +574,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,9 +606,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,6 +658,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -754,14 +851,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
@@ -769,7 +867,7 @@
     <col min="10" max="10" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -783,7 +881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -809,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -827,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -845,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -863,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -881,7 +979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -896,7 +994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -911,7 +1009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -926,7 +1024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -941,7 +1039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -956,7 +1054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -968,7 +1066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -980,7 +1078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -992,7 +1090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1004,7 +1102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1016,7 +1114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1044,12 +1142,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1058,12 +1157,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/分数预测.xlsx
+++ b/分数预测.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24F5388-420C-47F8-B6E9-88F2E4391226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>金融市场基础知识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,14 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下次预测得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下次预测得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,15 +41,27 @@
     <t>权重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>智能预测考分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能预测考分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据量过少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,12 +100,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -122,30 +120,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -163,14 +143,12 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -272,15 +250,22 @@
                 <c:pt idx="8">
                   <c:v>62</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CD12-40FC-A46C-F7B7AC365C41}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -291,7 +276,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>下次预测得分</c:v>
+                  <c:v>智能预测考分</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -356,6 +341,18 @@
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>66.423076923076934</c:v>
                 </c:pt>
@@ -372,77 +369,58 @@
                   <c:v>65.294871794871796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.948717948717949</c:v>
+                  <c:v>65.871794871794862</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.089743589743591</c:v>
+                  <c:v>68.141025641025649</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.692307692307697</c:v>
+                  <c:v>68.179487179487197</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.9487179487179489</c:v>
+                  <c:v>71.487179487179475</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>54.551282051282051</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>37.512820512820518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CD12-40FC-A46C-F7B7AC365C41}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="192910848"/>
-        <c:axId val="192912384"/>
+        <c:axId val="199271936"/>
+        <c:axId val="199273472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192910848"/>
+        <c:axId val="199271936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
           <c:min val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192912384"/>
+        <c:crossAx val="199273472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192912384"/>
+        <c:axId val="199273472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
           <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192910848"/>
+        <c:crossAx val="199271936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -450,15 +428,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -468,26 +444,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -506,12 +476,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A2:C17" totalsRowShown="0">
-  <autoFilter ref="A2:C17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:C17" totalsRowShown="0">
+  <autoFilter ref="A2:C17"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="次数"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="得分"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="下次预测得分" dataDxfId="0">
+    <tableColumn id="1" name="次数"/>
+    <tableColumn id="2" name="得分"/>
+    <tableColumn id="3" name="智能预测考分" dataDxfId="0">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -520,19 +490,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="H2:J17" totalsRowShown="0">
-  <autoFilter ref="H2:J17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="H2:J17" totalsRowShown="0">
+  <autoFilter ref="H2:J17"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="次数"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="得分"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="下次预测得分"/>
+    <tableColumn id="1" name="次数"/>
+    <tableColumn id="2" name="得分"/>
+    <tableColumn id="3" name="智能预测考分"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -574,7 +544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,27 +576,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -658,24 +610,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -851,15 +785,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
@@ -867,21 +800,21 @@
     <col min="10" max="10" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -889,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -904,17 +837,19 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>67</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E3">
         <v>2</v>
       </c>
@@ -925,14 +860,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>62</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -943,14 +880,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>71</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E5">
         <v>4</v>
       </c>
@@ -961,14 +900,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>71</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E6">
         <v>5</v>
       </c>
@@ -979,7 +920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
@@ -994,7 +935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1009,7 +950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1024,7 +965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1039,7 +980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1054,73 +995,85 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>66</v>
+      </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>48.948717948717949</v>
+        <v>65.871794871794862</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>74</v>
+      </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>33.089743589743591</v>
+        <v>68.141025641025649</v>
       </c>
       <c r="H13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>66</v>
+      </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>19.692307692307697</v>
+        <v>68.179487179487197</v>
       </c>
       <c r="H14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>83</v>
+      </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>7.9487179487179489</v>
+        <v>71.487179487179475</v>
       </c>
       <c r="H15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54.551282051282051</v>
       </c>
       <c r="H16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.512820512820518</v>
       </c>
       <c r="H17">
         <v>15</v>
@@ -1131,7 +1084,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C7:C17" calculatedColumn="1"/>
+    <ignoredError sqref="C7:C17 C3:C6" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="2">
@@ -1142,13 +1095,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1157,13 +1109,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/分数预测.xlsx
+++ b/分数预测.xlsx
@@ -262,6 +262,12 @@
                 <c:pt idx="12">
                   <c:v>83</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -381,21 +387,21 @@
                   <c:v>71.487179487179475</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>54.551282051282051</c:v>
+                  <c:v>77.628205128205124</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.512820512820518</c:v>
+                  <c:v>79.692307692307693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="199271936"/>
-        <c:axId val="199273472"/>
+        <c:axId val="197699072"/>
+        <c:axId val="197700608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199271936"/>
+        <c:axId val="197699072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -404,13 +410,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199273472"/>
+        <c:crossAx val="197700608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199273472"/>
+        <c:axId val="197700608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -420,7 +426,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199271936"/>
+        <c:crossAx val="197699072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -434,7 +440,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -444,16 +450,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -788,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1059,9 +1065,12 @@
       <c r="A16">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>54.551282051282051</v>
+        <v>77.628205128205124</v>
       </c>
       <c r="H16">
         <v>14</v>
@@ -1071,9 +1080,12 @@
       <c r="A17">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>79</v>
+      </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>37.512820512820518</v>
+        <v>79.692307692307693</v>
       </c>
       <c r="H17">
         <v>15</v>

--- a/分数预测.xlsx
+++ b/分数预测.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>金融市场基础知识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,10 +27,6 @@
   </si>
   <si>
     <t>得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本法律法规</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -51,6 +47,10 @@
   </si>
   <si>
     <t>数据量过少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本法律法规</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -109,6 +109,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -165,10 +168,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:f>Sheet1!$A$3:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -213,16 +216,64 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$17</c:f>
+              <c:f>Sheet1!$B$3:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>67</c:v>
                 </c:pt>
@@ -267,6 +318,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -289,10 +346,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$17</c:f>
+              <c:f>Sheet1!$A$3:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -337,16 +394,64 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$17</c:f>
+              <c:f>Sheet1!$C$3:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -391,32 +496,80 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>79.692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82.128205128205138</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60.92307692307692</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.15384615384616</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.641025641025641</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="197699072"/>
-        <c:axId val="197700608"/>
+        <c:axId val="205243904"/>
+        <c:axId val="205245440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197699072"/>
+        <c:axId val="205243904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="15"/>
+          <c:max val="30"/>
           <c:min val="1"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197700608"/>
+        <c:crossAx val="205245440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197700608"/>
+        <c:axId val="205245440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -426,7 +579,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197699072"/>
+        <c:crossAx val="205243904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -440,7 +593,432 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>基本法律法规得分</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>得分</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>智能预测考分</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9230769230769234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="206016512"/>
+        <c:axId val="206018048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="206016512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="206018048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="206018048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="206016512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -478,12 +1056,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:C17" totalsRowShown="0">
-  <autoFilter ref="A2:C17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:C33" totalsRowShown="0">
+  <autoFilter ref="A2:C33"/>
   <tableColumns count="3">
     <tableColumn id="1" name="次数"/>
     <tableColumn id="2" name="得分"/>
@@ -496,8 +1104,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="H2:J17" totalsRowShown="0">
-  <autoFilter ref="H2:J17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="H2:J33" totalsRowShown="0">
+  <autoFilter ref="H2:J33"/>
   <tableColumns count="3">
     <tableColumn id="1" name="次数"/>
     <tableColumn id="2" name="得分"/>
@@ -792,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -811,13 +1419,13 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -828,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -843,7 +1451,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -854,7 +1462,7 @@
         <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -864,6 +1472,12 @@
       </c>
       <c r="H3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>54</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -874,7 +1488,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -884,6 +1498,9 @@
       </c>
       <c r="H4">
         <v>2</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -894,7 +1511,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -904,6 +1521,9 @@
       </c>
       <c r="H5">
         <v>3</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -914,7 +1534,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -924,6 +1544,9 @@
       </c>
       <c r="H6">
         <v>4</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -940,6 +1563,10 @@
       <c r="H7">
         <v>5</v>
       </c>
+      <c r="J7" s="1">
+        <f>(I7*$F$6+I6*$F$5+I5*$F$4+I4*$F$3+I3*$F$2)/SUM($F$2:$F$6)</f>
+        <v>6.9230769230769234</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
@@ -949,11 +1576,15 @@
         <v>64</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8:C17" si="0">(B8*$F$6+B7*$F$5+B6*$F$4+B5*$F$3+B4*$F$2)/SUM($F$2:$F$6)</f>
+        <f t="shared" ref="C8:C33" si="0">(B8*$F$6+B7*$F$5+B6*$F$4+B5*$F$3+B4*$F$2)/SUM($F$2:$F$6)</f>
         <v>65.615384615384613</v>
       </c>
       <c r="H8">
         <v>6</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" ref="J8:J33" si="1">(I8*$F$6+I7*$F$5+I6*$F$4+I5*$F$3+I4*$F$2)/SUM($F$2:$F$6)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -970,6 +1601,10 @@
       <c r="H9">
         <v>7</v>
       </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
@@ -985,6 +1620,10 @@
       <c r="H10">
         <v>8</v>
       </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
@@ -1000,6 +1639,10 @@
       <c r="H11">
         <v>9</v>
       </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
@@ -1015,6 +1658,10 @@
       <c r="H12">
         <v>10</v>
       </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
@@ -1030,6 +1677,10 @@
       <c r="H13">
         <v>11</v>
       </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
@@ -1045,6 +1696,10 @@
       <c r="H14">
         <v>12</v>
       </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
@@ -1060,6 +1715,10 @@
       <c r="H15">
         <v>13</v>
       </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
@@ -1075,8 +1734,12 @@
       <c r="H16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1089,6 +1752,274 @@
       </c>
       <c r="H17">
         <v>15</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>82.128205128205138</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>60.92307692307692</v>
+      </c>
+      <c r="H20">
+        <v>18</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>40.15384615384616</v>
+      </c>
+      <c r="H21">
+        <v>19</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>23.833333333333336</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>10.641025641025641</v>
+      </c>
+      <c r="H23">
+        <v>21</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>22</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>23</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>25</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>26</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>27</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>28</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>29</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>31</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +2027,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C7:C17 C3:C6" calculatedColumn="1"/>
+    <ignoredError sqref="C7:C17 C3:C6 C18:C33" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="2">

--- a/分数预测.xlsx
+++ b/分数预测.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E3FAEA-BBDA-4CEA-A869-C3A218C4A6D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="yang" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t>金融市场基础知识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,11 +67,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,18 +127,39 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.00_ "/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="0.00_ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -146,12 +177,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -329,6 +362,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-498B-4B1D-9189-8066B98E4D85}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -549,7 +587,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-498B-4B1D-9189-8066B98E4D85}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="205243904"/>
         <c:axId val="205245440"/>
       </c:scatterChart>
@@ -560,8 +611,11 @@
           <c:max val="30"/>
           <c:min val="1"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="205245440"/>
         <c:crosses val="autoZero"/>
@@ -575,9 +629,12 @@
           <c:max val="90"/>
           <c:min val="60"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="205243904"/>
         <c:crosses val="autoZero"/>
@@ -587,9 +644,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -600,8 +659,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -619,12 +688,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -754,6 +825,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DB2-4110-A3B1-042E24CB6169}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -974,7 +1050,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5DB2-4110-A3B1-042E24CB6169}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="206016512"/>
         <c:axId val="206018048"/>
       </c:scatterChart>
@@ -985,8 +1074,11 @@
           <c:max val="30"/>
           <c:min val="1"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="206018048"/>
         <c:crosses val="autoZero"/>
@@ -1000,9 +1092,12 @@
           <c:max val="90"/>
           <c:min val="60"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="206016512"/>
         <c:crosses val="autoZero"/>
@@ -1012,9 +1107,1006 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>金融市场基础知识得分</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yang!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>得分</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>yang!$A$3:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>yang!$B$3:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7B3-48B9-8B71-71B8F0EE6269}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yang!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>智能预测考分</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>yang!$A$3:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>yang!$C$3:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.423076923076934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.615384615384613</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.448717948717956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.705128205128204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.294871794871796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.871794871794862</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.141025641025649</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.179487179487197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.487179487179475</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>77.628205128205124</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82.128205128205138</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60.92307692307692</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.15384615384616</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.641025641025641</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B7B3-48B9-8B71-71B8F0EE6269}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="205243904"/>
+        <c:axId val="205245440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="205243904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="205245440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="205245440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="205243904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>基本法律法规得分</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yang!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>得分</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>yang!$H$3:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>yang!$I$3:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AFB-4666-9475-63A613781059}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>yang!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>智能预测考分</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>yang!$H$3:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>yang!$J$3:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.051282051282044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.57692307692308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.948717948717942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.243589743589737</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.282051282051285</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.846153846153847</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.717948717948719</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8AFB-4666-9475-63A613781059}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="206016512"/>
+        <c:axId val="206018048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="206016512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="206018048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="206018048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="206016512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1041,7 +2133,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1071,7 +2169,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1089,13 +2193,94 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D81A19-4746-4D37-8587-1373C1A0A41C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6660331-76F3-4412-81EE-C1B71ECD1AF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:C33" totalsRowShown="0">
-  <autoFilter ref="A2:C33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A2:C33" totalsRowShown="0">
+  <autoFilter ref="A2:C33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="次数"/>
-    <tableColumn id="2" name="得分"/>
-    <tableColumn id="3" name="智能预测考分" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="次数"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="得分"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="智能预测考分" dataDxfId="1">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1104,19 +2289,45 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="H2:J33" totalsRowShown="0">
-  <autoFilter ref="H2:J33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="H2:J33" totalsRowShown="0">
+  <autoFilter ref="H2:J33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="次数"/>
-    <tableColumn id="2" name="得分"/>
-    <tableColumn id="3" name="智能预测考分"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="次数"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="得分"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="智能预测考分"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6DB3E4BE-862F-4AFC-8D2D-0E8C89340FDB}" name="表1_4" displayName="表1_4" ref="A2:C33" totalsRowShown="0">
+  <autoFilter ref="A2:C33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F60D2B39-7A61-4D48-9A4E-6F41A4815AF6}" name="次数"/>
+    <tableColumn id="2" xr3:uid="{0E039991-493A-4164-936A-81A0328C4229}" name="得分"/>
+    <tableColumn id="3" xr3:uid="{4D39BBCF-AB21-4380-8718-64B065B27F52}" name="智能预测考分" dataDxfId="0">
+      <calculatedColumnFormula>#REF!</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ED1E9541-C911-4C71-AFD8-79CDAD6D2BE3}" name="表2_5" displayName="表2_5" ref="H2:J33" totalsRowShown="0">
+  <autoFilter ref="H2:J33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{132F826C-56FA-4329-A659-F7BFF9C2C6F1}" name="次数"/>
+    <tableColumn id="2" xr3:uid="{E2845A77-9FCD-4800-9ED0-D28288CF2B4C}" name="得分"/>
+    <tableColumn id="3" xr3:uid="{3ED8C4BB-7B78-4BBB-9044-CE6F43328230}" name="智能预测考分"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1158,7 +2369,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1190,9 +2401,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1224,6 +2453,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1399,14 +2646,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
@@ -1414,7 +2662,7 @@
     <col min="10" max="10" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +2676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1454,7 +2702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1480,7 +2728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1503,7 +2751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1526,7 +2774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1549,7 +2797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1568,7 +2816,7 @@
         <v>6.9230769230769234</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1587,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1606,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1625,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1644,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1663,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1682,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1701,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1720,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1739,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1758,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1777,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1796,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1812,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1828,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1844,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1860,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1876,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1892,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1908,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1924,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1940,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1956,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1972,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1988,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2004,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2038,12 +3286,671 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB091F6-C7DA-4ED3-9D19-6DB37B7DB27D}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1.3</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>68</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1.6</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>64</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>71</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1.9</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>68</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>72</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1">
+        <f>(B7*$F$6+B6*$F$5+B5*$F$4+B4*$F$3+B3*$F$2)/SUM($F$2:$F$6)</f>
+        <v>66.423076923076934</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>67</v>
+      </c>
+      <c r="J7" s="1">
+        <f>(I7*$F$6+I6*$F$5+I5*$F$4+I4*$F$3+I3*$F$2)/SUM($F$2:$F$6)</f>
+        <v>68.051282051282044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ref="C8:C33" si="0">(B8*$F$6+B7*$F$5+B6*$F$4+B5*$F$3+B4*$F$2)/SUM($F$2:$F$6)</f>
+        <v>65.615384615384613</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>70</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" ref="J8:J33" si="1">(I8*$F$6+I7*$F$5+I6*$F$4+I5*$F$3+I4*$F$2)/SUM($F$2:$F$6)</f>
+        <v>68.57692307692308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>65.448717948717956</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>68</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>68.948717948717942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>73</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>66.705128205128204</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>66</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>68.243589743589737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>65.294871794871796</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>50.282051282051285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>65.871794871794862</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>33.846153846153847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>74</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>68.141025641025649</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>19.717948717948719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>68.179487179487197</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4615384615384617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>83</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>71.487179487179475</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>77.628205128205124</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>79.692307692307693</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>82.128205128205138</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>60.92307692307692</v>
+      </c>
+      <c r="H20">
+        <v>18</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>40.15384615384616</v>
+      </c>
+      <c r="H21">
+        <v>19</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>23.833333333333336</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>10.641025641025641</v>
+      </c>
+      <c r="H23">
+        <v>21</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>22</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>23</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>25</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>26</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>27</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>28</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>29</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>31</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2051,13 +3958,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/分数预测.xlsx
+++ b/分数预测.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E3FAEA-BBDA-4CEA-A869-C3A218C4A6D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE9B0F6-99A9-4A1F-AFC6-FB89DBA386CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -358,6 +358,9 @@
                 <c:pt idx="16">
                   <c:v>83</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>81</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -542,19 +545,19 @@
                   <c:v>82.128205128205138</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>60.92307692307692</c:v>
+                  <c:v>81.692307692307693</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.15384615384616</c:v>
+                  <c:v>59.884615384615387</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.833333333333336</c:v>
+                  <c:v>40.448717948717949</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.641025641025641</c:v>
+                  <c:v>24.141025641025642</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>10.384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -2650,8 +2653,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3048,9 +3051,12 @@
       <c r="A20">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>81</v>
+      </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>60.92307692307692</v>
+        <v>81.692307692307693</v>
       </c>
       <c r="H20">
         <v>18</v>
@@ -3066,7 +3072,7 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>40.15384615384616</v>
+        <v>59.884615384615387</v>
       </c>
       <c r="H21">
         <v>19</v>
@@ -3082,7 +3088,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>23.833333333333336</v>
+        <v>40.448717948717949</v>
       </c>
       <c r="H22">
         <v>20</v>
@@ -3098,7 +3104,7 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>10.641025641025641</v>
+        <v>24.141025641025642</v>
       </c>
       <c r="H23">
         <v>21</v>
@@ -3114,7 +3120,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.384615384615385</v>
       </c>
       <c r="H24">
         <v>22</v>
@@ -3290,8 +3296,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/分数预测.xlsx
+++ b/分数预测.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE9B0F6-99A9-4A1F-AFC6-FB89DBA386CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03EE033-9B45-4444-B44E-E3CF43493CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,10 +201,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$33</c:f>
+              <c:f>Sheet1!$A$3:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -291,22 +291,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$33</c:f>
+              <c:f>Sheet1!$B$3:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>67</c:v>
                 </c:pt>
@@ -360,6 +354,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -387,10 +384,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$33</c:f>
+              <c:f>Sheet1!$A$3:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -477,22 +474,16 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$33</c:f>
+              <c:f>Sheet1!$C$3:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -548,19 +539,19 @@
                   <c:v>81.692307692307693</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>59.884615384615387</c:v>
+                  <c:v>77.320512820512832</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40.448717948717949</c:v>
+                  <c:v>57.012820512820504</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.141025641025642</c:v>
+                  <c:v>38.089743589743591</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.384615384615385</c:v>
+                  <c:v>21.717948717948719</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>8.717948717948719</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -578,12 +569,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -604,14 +589,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205243904"/>
-        <c:axId val="205245440"/>
+        <c:axId val="178280704"/>
+        <c:axId val="178331648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205243904"/>
+        <c:axId val="178280704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
           <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -620,13 +604,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205245440"/>
+        <c:crossAx val="178331648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205245440"/>
+        <c:axId val="178331648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -639,7 +622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205243904"/>
+        <c:crossAx val="178280704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -655,7 +638,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -715,10 +698,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$33</c:f>
+              <c:f>Sheet1!$H$3:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -763,64 +746,16 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$33</c:f>
+              <c:f>Sheet1!$I$3:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
@@ -850,10 +785,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$33</c:f>
+              <c:f>Sheet1!$H$3:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -898,64 +833,16 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$33</c:f>
+              <c:f>Sheet1!$J$3:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -999,54 +886,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1067,14 +906,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206016512"/>
-        <c:axId val="206018048"/>
+        <c:axId val="184266752"/>
+        <c:axId val="184268672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206016512"/>
+        <c:axId val="184266752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
           <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1083,13 +921,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206018048"/>
+        <c:crossAx val="184268672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206018048"/>
+        <c:axId val="184268672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -1102,7 +939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206016512"/>
+        <c:crossAx val="184266752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1118,7 +955,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1578,11 +1415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205243904"/>
-        <c:axId val="205245440"/>
+        <c:axId val="190086144"/>
+        <c:axId val="191927424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205243904"/>
+        <c:axId val="190086144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1594,13 +1431,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205245440"/>
+        <c:crossAx val="191927424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205245440"/>
+        <c:axId val="191927424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -1613,7 +1450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205243904"/>
+        <c:crossAx val="190086144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1629,7 +1466,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2062,11 +1899,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206016512"/>
-        <c:axId val="206018048"/>
+        <c:axId val="210737792"/>
+        <c:axId val="230071296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206016512"/>
+        <c:axId val="210737792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2078,13 +1915,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206018048"/>
+        <c:crossAx val="230071296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206018048"/>
+        <c:axId val="230071296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -2097,7 +1934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206016512"/>
+        <c:crossAx val="210737792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2113,7 +1950,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2278,8 +2115,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A2:C33" totalsRowShown="0">
-  <autoFilter ref="A2:C33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A2:C31" totalsRowShown="0">
+  <autoFilter ref="A2:C31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="次数"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="得分"/>
@@ -2292,8 +2129,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="H2:J33" totalsRowShown="0">
-  <autoFilter ref="H2:J33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="H2:J17" totalsRowShown="0">
+  <autoFilter ref="H2:J17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="次数"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="得分"/>
@@ -2304,12 +2141,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6DB3E4BE-862F-4AFC-8D2D-0E8C89340FDB}" name="表1_4" displayName="表1_4" ref="A2:C33" totalsRowShown="0">
-  <autoFilter ref="A2:C33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_4" displayName="表1_4" ref="A2:C33" totalsRowShown="0">
+  <autoFilter ref="A2:C33" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F60D2B39-7A61-4D48-9A4E-6F41A4815AF6}" name="次数"/>
-    <tableColumn id="2" xr3:uid="{0E039991-493A-4164-936A-81A0328C4229}" name="得分"/>
-    <tableColumn id="3" xr3:uid="{4D39BBCF-AB21-4380-8718-64B065B27F52}" name="智能预测考分" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="次数"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="得分"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="智能预测考分" dataDxfId="0">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2318,12 +2155,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ED1E9541-C911-4C71-AFD8-79CDAD6D2BE3}" name="表2_5" displayName="表2_5" ref="H2:J33" totalsRowShown="0">
-  <autoFilter ref="H2:J33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表2_5" displayName="表2_5" ref="H2:J33" totalsRowShown="0">
+  <autoFilter ref="H2:J33" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{132F826C-56FA-4329-A659-F7BFF9C2C6F1}" name="次数"/>
-    <tableColumn id="2" xr3:uid="{E2845A77-9FCD-4800-9ED0-D28288CF2B4C}" name="得分"/>
-    <tableColumn id="3" xr3:uid="{3ED8C4BB-7B78-4BBB-9044-CE6F43328230}" name="智能预测考分"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="次数"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="得分"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="智能预测考分"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2651,7 +2488,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -2827,14 +2664,14 @@
         <v>64</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ref="C8:C33" si="0">(B8*$F$6+B7*$F$5+B6*$F$4+B5*$F$3+B4*$F$2)/SUM($F$2:$F$6)</f>
+        <f t="shared" ref="C8:C31" si="0">(B8*$F$6+B7*$F$5+B6*$F$4+B5*$F$3+B4*$F$2)/SUM($F$2:$F$6)</f>
         <v>65.615384615384613</v>
       </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ref="J8:J33" si="1">(I8*$F$6+I7*$F$5+I6*$F$4+I5*$F$3+I4*$F$2)/SUM($F$2:$F$6)</f>
+        <f t="shared" ref="J8:J17" si="1">(I8*$F$6+I7*$F$5+I6*$F$4+I5*$F$3+I4*$F$2)/SUM($F$2:$F$6)</f>
         <v>0</v>
       </c>
     </row>
@@ -3020,13 +2857,6 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H18">
-        <v>16</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
@@ -3039,13 +2869,6 @@
         <f t="shared" si="0"/>
         <v>82.128205128205138</v>
       </c>
-      <c r="H19">
-        <v>17</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
@@ -3058,28 +2881,17 @@
         <f t="shared" si="0"/>
         <v>81.692307692307693</v>
       </c>
-      <c r="H20">
-        <v>18</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>68</v>
+      </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>59.884615384615387</v>
-      </c>
-      <c r="H21">
-        <v>19</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>77.320512820512832</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -3088,14 +2900,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>40.448717948717949</v>
-      </c>
-      <c r="H22">
-        <v>20</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>57.012820512820504</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -3104,14 +2909,7 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>24.141025641025642</v>
-      </c>
-      <c r="H23">
-        <v>21</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.089743589743591</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -3120,14 +2918,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>10.384615384615385</v>
-      </c>
-      <c r="H24">
-        <v>22</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.717948717948719</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -3136,14 +2927,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>23</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.717948717948719</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -3154,13 +2938,6 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H26">
-        <v>24</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
@@ -3170,13 +2947,6 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H27">
-        <v>25</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
@@ -3186,13 +2956,6 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>26</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
@@ -3202,13 +2965,6 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>27</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
@@ -3218,13 +2974,6 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>28</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
@@ -3232,47 +2981,6 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>29</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>30</v>
-      </c>
-      <c r="J32" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>31</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3281,7 +2989,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C7:C17 C3:C6 C18:C33" calculatedColumn="1"/>
+    <ignoredError sqref="C7:C17 C3:C6 C18:C31" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="2">
@@ -3292,7 +3000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB091F6-C7DA-4ED3-9D19-6DB37B7DB27D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J33"/>
   <sheetViews>
@@ -3950,7 +3658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3965,7 +3673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/分数预测.xlsx
+++ b/分数预测.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03EE033-9B45-4444-B44E-E3CF43493CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBAF328-2377-44E9-AC65-5E2CC163B052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,6 +759,9 @@
                 <c:pt idx="0">
                   <c:v>54</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -856,10 +859,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9230769230769234</c:v>
+                  <c:v>17.756410256410255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1656,6 +1659,9 @@
                 <c:pt idx="7">
                   <c:v>66</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1813,19 +1819,19 @@
                   <c:v>68.243589743589737</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.282051282051285</c:v>
+                  <c:v>66.179487179487182</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.846153846153847</c:v>
+                  <c:v>48.948717948717949</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.717948717948719</c:v>
+                  <c:v>32.435897435897438</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.4615384615384617</c:v>
+                  <c:v>18.794871794871799</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>7.9487179487179489</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2491,7 +2497,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2587,6 +2593,9 @@
       <c r="H4">
         <v>2</v>
       </c>
+      <c r="I4">
+        <v>65</v>
+      </c>
       <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2653,7 +2662,7 @@
       </c>
       <c r="J7" s="1">
         <f>(I7*$F$6+I6*$F$5+I5*$F$4+I4*$F$3+I3*$F$2)/SUM($F$2:$F$6)</f>
-        <v>6.9230769230769234</v>
+        <v>17.756410256410255</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -2672,7 +2681,7 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" ref="J8:J17" si="1">(I8*$F$6+I7*$F$5+I6*$F$4+I5*$F$3+I4*$F$2)/SUM($F$2:$F$6)</f>
-        <v>0</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -3005,7 +3014,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3262,9 +3271,12 @@
       <c r="H11">
         <v>9</v>
       </c>
+      <c r="I11">
+        <v>62</v>
+      </c>
       <c r="J11" s="1">
         <f t="shared" si="1"/>
-        <v>50.282051282051285</v>
+        <v>66.179487179487182</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -3283,7 +3295,7 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" si="1"/>
-        <v>33.846153846153847</v>
+        <v>48.948717948717949</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -3302,7 +3314,7 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" si="1"/>
-        <v>19.717948717948719</v>
+        <v>32.435897435897438</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -3321,7 +3333,7 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" si="1"/>
-        <v>8.4615384615384617</v>
+        <v>18.794871794871799</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -3340,7 +3352,7 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.9487179487179489</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">

--- a/分数预测.xlsx
+++ b/分数预测.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBAF328-2377-44E9-AC65-5E2CC163B052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B0AC43-2CAD-4207-82C8-8DB68D2B1262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -762,6 +762,9 @@
                 <c:pt idx="1">
                   <c:v>65</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -859,13 +862,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.756410256410255</c:v>
+                  <c:v>31.294871794871799</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>19.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8.4615384615384617</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2497,7 +2500,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2619,6 +2622,9 @@
       <c r="H5">
         <v>3</v>
       </c>
+      <c r="I5">
+        <v>66</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2662,7 +2668,7 @@
       </c>
       <c r="J7" s="1">
         <f>(I7*$F$6+I6*$F$5+I5*$F$4+I4*$F$3+I3*$F$2)/SUM($F$2:$F$6)</f>
-        <v>17.756410256410255</v>
+        <v>31.294871794871799</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -2681,7 +2687,7 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" ref="J8:J17" si="1">(I8*$F$6+I7*$F$5+I6*$F$4+I5*$F$3+I4*$F$2)/SUM($F$2:$F$6)</f>
-        <v>8.3333333333333339</v>
+        <v>19.333333333333336</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -2700,7 +2706,7 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.4615384615384617</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">

--- a/分数预测.xlsx
+++ b/分数预测.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B0AC43-2CAD-4207-82C8-8DB68D2B1262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F862E2-93DA-4F7A-A074-17615CEFC532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,11 +589,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178280704"/>
-        <c:axId val="178331648"/>
+        <c:axId val="192626688"/>
+        <c:axId val="192628224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178280704"/>
+        <c:axId val="192626688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -604,12 +604,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178331648"/>
+        <c:crossAx val="192628224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178331648"/>
+        <c:axId val="192628224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -622,7 +622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178280704"/>
+        <c:crossAx val="192626688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -638,7 +638,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -765,6 +765,12 @@
                 <c:pt idx="2">
                   <c:v>66</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -862,19 +868,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.294871794871799</c:v>
+                  <c:v>61.897435897435898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.333333333333336</c:v>
+                  <c:v>47.012820512820511</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4615384615384617</c:v>
+                  <c:v>31.448717948717952</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>18.294871794871796</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8.8461538461538467</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -912,11 +918,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="184266752"/>
-        <c:axId val="184268672"/>
+        <c:axId val="192658816"/>
+        <c:axId val="192681088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184266752"/>
+        <c:axId val="192658816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -927,12 +933,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184268672"/>
+        <c:crossAx val="192681088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184268672"/>
+        <c:axId val="192681088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -945,7 +951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184266752"/>
+        <c:crossAx val="192658816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -961,7 +967,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1421,11 +1427,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190086144"/>
-        <c:axId val="191927424"/>
+        <c:axId val="201407872"/>
+        <c:axId val="201434240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190086144"/>
+        <c:axId val="201407872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1437,13 +1443,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191927424"/>
+        <c:crossAx val="201434240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191927424"/>
+        <c:axId val="201434240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -1456,7 +1462,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190086144"/>
+        <c:crossAx val="201407872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1472,7 +1478,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1908,11 +1914,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210737792"/>
-        <c:axId val="230071296"/>
+        <c:axId val="201550848"/>
+        <c:axId val="201560832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210737792"/>
+        <c:axId val="201550848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1924,13 +1930,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230071296"/>
+        <c:crossAx val="201560832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230071296"/>
+        <c:axId val="201560832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -1943,7 +1949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210737792"/>
+        <c:crossAx val="201550848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1959,7 +1965,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2500,7 +2506,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2648,6 +2654,9 @@
       <c r="H6">
         <v>4</v>
       </c>
+      <c r="I6">
+        <v>53</v>
+      </c>
       <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2666,9 +2675,12 @@
       <c r="H7">
         <v>5</v>
       </c>
+      <c r="I7">
+        <v>69</v>
+      </c>
       <c r="J7" s="1">
         <f>(I7*$F$6+I6*$F$5+I5*$F$4+I4*$F$3+I3*$F$2)/SUM($F$2:$F$6)</f>
-        <v>31.294871794871799</v>
+        <v>61.897435897435898</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -2687,7 +2699,7 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" ref="J8:J17" si="1">(I8*$F$6+I7*$F$5+I6*$F$4+I5*$F$3+I4*$F$2)/SUM($F$2:$F$6)</f>
-        <v>19.333333333333336</v>
+        <v>47.012820512820511</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -2706,7 +2718,7 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" si="1"/>
-        <v>8.4615384615384617</v>
+        <v>31.448717948717952</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -2725,7 +2737,7 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.294871794871796</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -2744,7 +2756,7 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.8461538461538467</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">

--- a/分数预测.xlsx
+++ b/分数预测.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F862E2-93DA-4F7A-A074-17615CEFC532}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -67,11 +66,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,18 +147,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -177,14 +166,12 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -358,11 +345,14 @@
                 <c:pt idx="18">
                   <c:v>68</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>71</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-498B-4B1D-9189-8066B98E4D85}"/>
             </c:ext>
@@ -542,19 +532,19 @@
                   <c:v>77.320512820512832</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>57.012820512820504</c:v>
+                  <c:v>75.217948717948715</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.089743589743591</c:v>
+                  <c:v>55.384615384615387</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.717948717948719</c:v>
+                  <c:v>36.282051282051285</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.717948717948719</c:v>
+                  <c:v>20.551282051282055</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>9.1025641025641022</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -575,54 +565,40 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-498B-4B1D-9189-8066B98E4D85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="192626688"/>
-        <c:axId val="192628224"/>
+        <c:axId val="181346304"/>
+        <c:axId val="181347840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192626688"/>
+        <c:axId val="181346304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192628224"/>
+        <c:crossAx val="181347840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192628224"/>
+        <c:axId val="181347840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
           <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192626688"/>
+        <c:crossAx val="181346304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -630,33 +606,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -674,14 +639,12 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -771,11 +734,14 @@
                 <c:pt idx="4">
                   <c:v>69</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5DB2-4110-A3B1-042E24CB6169}"/>
             </c:ext>
@@ -871,19 +837,19 @@
                   <c:v>61.897435897435898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.012820512820511</c:v>
+                  <c:v>62.910256410256409</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.448717948717952</c:v>
+                  <c:v>46.551282051282058</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.294871794871796</c:v>
+                  <c:v>31.012820512820515</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8461538461538467</c:v>
+                  <c:v>19.179487179487182</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>7.9487179487179489</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -904,54 +870,40 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5DB2-4110-A3B1-042E24CB6169}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="192658816"/>
-        <c:axId val="192681088"/>
+        <c:axId val="181386624"/>
+        <c:axId val="181396608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192658816"/>
+        <c:axId val="181386624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192681088"/>
+        <c:crossAx val="181396608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192681088"/>
+        <c:axId val="181396608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
           <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192658816"/>
+        <c:crossAx val="181386624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -959,33 +911,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1003,14 +944,11 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1188,7 +1126,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B7B3-48B9-8B71-71B8F0EE6269}"/>
             </c:ext>
@@ -1413,56 +1351,42 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B7B3-48B9-8B71-71B8F0EE6269}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="201407872"/>
-        <c:axId val="201434240"/>
+        <c:axId val="182721920"/>
+        <c:axId val="182744192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201407872"/>
+        <c:axId val="182721920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
           <c:min val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201434240"/>
+        <c:crossAx val="182744192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201434240"/>
+        <c:axId val="182744192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
           <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201407872"/>
+        <c:crossAx val="182721920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1470,33 +1394,21 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1514,14 +1426,11 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1675,7 +1584,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8AFB-4666-9475-63A613781059}"/>
             </c:ext>
@@ -1900,56 +1809,42 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8AFB-4666-9475-63A613781059}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="201550848"/>
-        <c:axId val="201560832"/>
+        <c:axId val="182864896"/>
+        <c:axId val="182874880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201550848"/>
+        <c:axId val="182864896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
           <c:min val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201560832"/>
+        <c:crossAx val="182874880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201560832"/>
+        <c:axId val="182874880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
           <c:min val="60"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201550848"/>
+        <c:crossAx val="182864896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -1957,15 +1852,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1991,7 +1884,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,7 +1920,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +1961,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D81A19-4746-4D37-8587-1373C1A0A41C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D81A19-4746-4D37-8587-1373C1A0A41C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +1999,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6660331-76F3-4412-81EE-C1B71ECD1AF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6660331-76F3-4412-81EE-C1B71ECD1AF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,12 +2023,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A2:C31" totalsRowShown="0">
-  <autoFilter ref="A2:C31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:C31" totalsRowShown="0">
+  <autoFilter ref="A2:C31"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="次数"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="得分"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="智能预测考分" dataDxfId="1">
+    <tableColumn id="1" name="次数"/>
+    <tableColumn id="2" name="得分"/>
+    <tableColumn id="3" name="智能预测考分" dataDxfId="1">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2144,24 +2037,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="H2:J17" totalsRowShown="0">
-  <autoFilter ref="H2:J17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="H2:J17" totalsRowShown="0">
+  <autoFilter ref="H2:J17"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="次数"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="得分"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="智能预测考分"/>
+    <tableColumn id="1" name="次数"/>
+    <tableColumn id="2" name="得分"/>
+    <tableColumn id="3" name="智能预测考分"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_4" displayName="表1_4" ref="A2:C33" totalsRowShown="0">
-  <autoFilter ref="A2:C33" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_4" displayName="表1_4" ref="A2:C33" totalsRowShown="0">
+  <autoFilter ref="A2:C33"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="次数"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="得分"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="智能预测考分" dataDxfId="0">
+    <tableColumn id="1" name="次数"/>
+    <tableColumn id="2" name="得分"/>
+    <tableColumn id="3" name="智能预测考分" dataDxfId="0">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2170,19 +2063,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表2_5" displayName="表2_5" ref="H2:J33" totalsRowShown="0">
-  <autoFilter ref="H2:J33" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表2_5" displayName="表2_5" ref="H2:J33" totalsRowShown="0">
+  <autoFilter ref="H2:J33"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="次数"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="得分"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="智能预测考分"/>
+    <tableColumn id="1" name="次数"/>
+    <tableColumn id="2" name="得分"/>
+    <tableColumn id="3" name="智能预测考分"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2224,7 +2117,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2256,27 +2149,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2308,24 +2183,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2501,15 +2358,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
@@ -2517,7 +2374,7 @@
     <col min="10" max="10" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2531,7 +2388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2557,7 +2414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2583,7 +2440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2609,7 +2466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2635,7 +2492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2661,7 +2518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2682,8 +2539,11 @@
         <f>(I7*$F$6+I6*$F$5+I5*$F$4+I4*$F$3+I3*$F$2)/SUM($F$2:$F$6)</f>
         <v>61.897435897435898</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="U7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2697,12 +2557,18 @@
       <c r="H8">
         <v>6</v>
       </c>
+      <c r="I8">
+        <v>62</v>
+      </c>
       <c r="J8" s="1">
         <f t="shared" ref="J8:J17" si="1">(I8*$F$6+I7*$F$5+I6*$F$4+I5*$F$3+I4*$F$2)/SUM($F$2:$F$6)</f>
-        <v>47.012820512820511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+        <v>62.910256410256409</v>
+      </c>
+      <c r="U8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2718,10 +2584,13 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" si="1"/>
-        <v>31.448717948717952</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>46.551282051282058</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2737,10 +2606,13 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" si="1"/>
-        <v>18.294871794871796</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>31.012820512820515</v>
+      </c>
+      <c r="U10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2756,10 +2628,13 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" si="1"/>
-        <v>8.8461538461538467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19.179487179487182</v>
+      </c>
+      <c r="U11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2775,10 +2650,10 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>7.9487179487179489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2797,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2816,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2835,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2854,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2873,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2885,7 +2760,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2897,7 +2772,7 @@
         <v>82.128205128205138</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2909,7 +2784,7 @@
         <v>81.692307692307693</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2921,52 +2796,55 @@
         <v>77.320512820512832</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>71</v>
+      </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>57.012820512820504</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+        <v>75.217948717948715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>38.089743589743591</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+        <v>55.384615384615387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>21.717948717948719</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+        <v>36.282051282051285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>8.717948717948719</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>20.551282051282055</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+        <v>9.1025641025641022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2975,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2984,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2993,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3002,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3027,7 +2905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J33"/>
   <sheetViews>
@@ -3035,7 +2913,7 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
@@ -3043,7 +2921,7 @@
     <col min="10" max="10" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3057,7 +2935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3083,7 +2961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3109,7 +2987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3135,7 +3013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3161,7 +3039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3187,7 +3065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3209,7 +3087,7 @@
         <v>68.051282051282044</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3231,7 +3109,7 @@
         <v>68.57692307692308</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3253,7 +3131,7 @@
         <v>68.948717948717942</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3275,7 +3153,7 @@
         <v>68.243589743589737</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3297,7 +3175,7 @@
         <v>66.179487179487182</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3316,7 +3194,7 @@
         <v>48.948717948717949</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3335,7 +3213,7 @@
         <v>32.435897435897438</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3354,7 +3232,7 @@
         <v>18.794871794871799</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3373,7 +3251,7 @@
         <v>7.9487179487179489</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3392,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3411,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3430,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3449,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3465,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3481,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3497,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3513,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3529,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3545,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3561,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3577,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3593,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3609,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3625,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3641,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3657,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3688,13 +3566,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3703,13 +3581,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
